--- a/いろいろ/やることりすと.xlsx
+++ b/いろいろ/やることりすと.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>やること</t>
     <phoneticPr fontId="1"/>
@@ -645,6 +645,10 @@
     <rPh sb="3" eb="5">
       <t>カマタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -940,22 +944,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,7 +1245,7 @@
   <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1333,7 +1337,9 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1429,33 +1435,37 @@
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>43847</v>
       </c>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>43854</v>
       </c>
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="21">
+      <c r="B18" s="19">
         <v>0.8</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1464,7 +1474,7 @@
       <c r="D18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>43865</v>
       </c>
       <c r="F18" s="15" t="s">
@@ -1472,32 +1482,36 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3"/>
+      <c r="B19" s="19">
+        <v>0.5</v>
+      </c>
       <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="19">
-        <v>43851</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="17">
+        <v>43854</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="19">
-        <v>43851</v>
-      </c>
-      <c r="F20" s="17"/>
+      <c r="E20" s="17">
+        <v>43854</v>
+      </c>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="3"/>
@@ -1507,10 +1521,10 @@
       <c r="D21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>43854</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3"/>
@@ -1520,7 +1534,7 @@
       <c r="D22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <v>43868</v>
       </c>
       <c r="F22" s="15"/>
@@ -1533,7 +1547,7 @@
       <c r="D23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>43868</v>
       </c>
       <c r="F23" s="15"/>
@@ -1546,7 +1560,7 @@
       <c r="D24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>43868</v>
       </c>
       <c r="F24" s="15"/>
@@ -1559,7 +1573,7 @@
       <c r="D25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <v>43875</v>
       </c>
       <c r="F25" s="15" t="s">
@@ -1574,7 +1588,7 @@
       <c r="D26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="17">
         <v>43868</v>
       </c>
       <c r="F26" s="15"/>
@@ -1587,7 +1601,7 @@
       <c r="D27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="17">
         <v>43875</v>
       </c>
       <c r="F27" s="15"/>
@@ -1600,7 +1614,7 @@
       <c r="D28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>43882</v>
       </c>
       <c r="F28" s="15"/>
@@ -1613,7 +1627,7 @@
       <c r="D29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>43882</v>
       </c>
       <c r="F29" s="15"/>
@@ -1626,10 +1640,10 @@
       <c r="D30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <v>43895</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/いろいろ/やることりすと.xlsx
+++ b/いろいろ/やることりすと.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>やること</t>
     <phoneticPr fontId="1"/>
@@ -287,16 +287,6 @@
       <t>キノウ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リプライ機能の作成</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -505,13 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>草野/飯塚</t>
-    <rPh sb="0" eb="2">
-      <t>クサノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>飯塚/鎌田/薦田</t>
     <rPh sb="0" eb="2">
       <t>イイヅカ</t>
@@ -555,26 +538,6 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飯塚/鎌田</t>
-    <rPh sb="0" eb="2">
-      <t>イイヅカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カマタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>草野/薦田</t>
-    <rPh sb="0" eb="2">
-      <t>クサノ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コモダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -649,6 +612,53 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リプライ機能の作成(投稿の個別ページも作る)</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草野/今村/薦田</t>
+    <rPh sb="0" eb="2">
+      <t>クサノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イマムラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コモダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -681,7 +691,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -889,6 +899,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,14 +987,14 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1259,12 +1293,12 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -1451,13 +1485,13 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="17">
         <v>43854</v>
@@ -1465,61 +1499,63 @@
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="19">
-        <v>0.8</v>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E18" s="17">
         <v>43865</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="19">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="17">
         <v>43854</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>32</v>
+      <c r="F19" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E20" s="17">
         <v>43854</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E21" s="17">
         <v>43854</v>
@@ -1527,12 +1563,14 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E22" s="17">
         <v>43868</v>
@@ -1540,12 +1578,14 @@
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="17">
         <v>43868</v>
@@ -1553,12 +1593,14 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="17">
         <v>43868</v>
@@ -1568,25 +1610,27 @@
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="17">
         <v>43875</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C26" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E26" s="17">
         <v>43868</v>
@@ -1596,10 +1640,10 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E27" s="17">
         <v>43875</v>
@@ -1609,10 +1653,10 @@
     <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="17">
         <v>43882</v>
@@ -1622,10 +1666,10 @@
     <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="17">
         <v>43882</v>
@@ -1635,7 +1679,7 @@
     <row r="30" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>19</v>

--- a/いろいろ/やることりすと.xlsx
+++ b/いろいろ/やることりすと.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>やること</t>
     <phoneticPr fontId="1"/>
@@ -658,7 +658,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
+    <t>遅</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1278,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1564,7 +1567,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>32</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>33</v>
@@ -1608,7 +1611,9 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
@@ -1638,7 +1643,9 @@
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" s="7" t="s">
         <v>36</v>
       </c>

--- a/いろいろ/やることりすと.xlsx
+++ b/いろいろ/やることりすと.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>やること</t>
     <phoneticPr fontId="1"/>
@@ -475,16 +475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鎌田/薦田</t>
-    <rPh sb="0" eb="2">
-      <t>カマタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コモダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>草野/飯塚</t>
     <rPh sb="0" eb="2">
       <t>クサノ</t>
@@ -538,36 +528,6 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今村/鎌田</t>
-    <rPh sb="0" eb="2">
-      <t>イマムラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カマタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飯塚/今村</t>
-    <rPh sb="0" eb="2">
-      <t>イイヅカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イマムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今村/薦田</t>
-    <rPh sb="0" eb="2">
-      <t>イマムラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コモダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -601,16 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>草野/鎌田</t>
-    <rPh sb="0" eb="2">
-      <t>クサノ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カマタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,19 +584,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>草野/今村/薦田</t>
-    <rPh sb="0" eb="2">
-      <t>クサノ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イマムラ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コモダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遅</t>
     <rPh sb="0" eb="1">
       <t>オク</t>
@@ -661,6 +598,33 @@
     <t>遅</t>
     <rPh sb="0" eb="1">
       <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やめる？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鎌田/薦田/今村</t>
+    <rPh sb="0" eb="2">
+      <t>カマタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コモダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イマムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飯塚/鎌田</t>
+    <rPh sb="0" eb="2">
+      <t>イイヅカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カマタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,7 +658,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -926,13 +890,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +971,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F30"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1296,12 +1275,12 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -1486,22 +1465,22 @@
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="17">
         <v>43854</v>
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1509,7 +1488,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18" s="17">
         <v>43865</v>
@@ -1518,7 +1497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1505,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E19" s="17">
         <v>43854</v>
@@ -1535,155 +1514,155 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E20" s="17">
         <v>43854</v>
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E21" s="17">
         <v>43854</v>
       </c>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="17">
         <v>43868</v>
       </c>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E23" s="17">
         <v>43868</v>
       </c>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="17">
         <v>43868</v>
       </c>
       <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="17">
         <v>43875</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3" t="s">
-        <v>55</v>
+      <c r="G25" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="22">
+        <v>0.5</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E26" s="17">
         <v>43868</v>
       </c>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="17">
         <v>43875</v>
       </c>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="17">
         <v>43882</v>
       </c>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E29" s="17">
         <v>43882</v>
       </c>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
         <v>39</v>
@@ -1695,6 +1674,9 @@
         <v>43895</v>
       </c>
       <c r="F30" s="16"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
